--- a/Connect_order/bin/OrderCreation.xlsx
+++ b/Connect_order/bin/OrderCreation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="286">
   <si>
     <t>Abhishek</t>
   </si>
@@ -862,6 +862,18 @@
   </si>
   <si>
     <t>3520834</t>
+  </si>
+  <si>
+    <t>3520839</t>
+  </si>
+  <si>
+    <t>3520840</t>
+  </si>
+  <si>
+    <t>3520916</t>
+  </si>
+  <si>
+    <t>3520917</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1484,7 @@
         <v>128</v>
       </c>
       <c r="AG2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AH2" s="7"/>
     </row>
